--- a/dataclean/codebook_year.xlsx
+++ b/dataclean/codebook_year.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang-yi/Documents/台大政研/資料分析與研究/masterthesis/MasterThesis_program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liang-yi/Documents/台大政研/資料分析與研究/masterthesis/MasterThesis_program/dataclean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4E13CD-0B7D-3B44-9BBA-94DCE33368B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA27AC9E-D098-7A46-B802-097276302E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20220" activeTab="1" xr2:uid="{C5DF3351-D2BF-3647-A9EE-B04CE626E88E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20220" xr2:uid="{C5DF3351-D2BF-3647-A9EE-B04CE626E88E}"/>
   </bookViews>
   <sheets>
     <sheet name="VAR" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NA_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>old_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,6 +209,10 @@
   </si>
   <si>
     <t>女=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not_NA_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251EA42E-0CF4-CF49-91E8-71B6A95F9DF0}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -601,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -612,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -623,10 +623,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -634,10 +634,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -653,10 +653,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -664,10 +664,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -675,10 +675,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -686,10 +686,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -700,7 +700,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -711,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -730,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B36EA1-0C59-E643-B4E0-7810F44A892F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -754,13 +754,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -768,13 +768,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -782,13 +782,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -796,13 +796,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -810,13 +810,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -824,13 +824,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -838,13 +838,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
